--- a/biology/Médecine/Ulrich_Sigwart/Ulrich_Sigwart.xlsx
+++ b/biology/Médecine/Ulrich_Sigwart/Ulrich_Sigwart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ulrich Sigwart (né le 9 mars 1941 en Allemagne) est un pionnier de la cardiologie.  En particulier il est connu pour son rôle dans le développement des supports mécaniques à l’intérieur des artères ('stent') et  pour l’introduction d’un traitement non chirurgical de la cardiomyopathie hypertrophique (Alcohol Septal Ablation, ASA).
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sigwart est issu d'une famille de philosophes, théologiens et médecins du Wurtemberg. Après des études à Fribourg, Bâle et Münster, il travaille  à Boston et Houston aux États-Unis, avant de continuer ses études de cardiologie à Zurich et, à partir de 1973, à l’institut Gollwitzer Meier à Bad Oeynhausen en Allemagne du Nord. Il y effectue  les premières angioplasties transluminales en 1978, peu après l’introduction de la méthode par Andreas Gruentzig.
-De 1979 à 1989, Sigwart a dirigé la cardiologie invasive à l’Université de Lausanne, où il a réussi à développer et implanter, en collaboration avec une industrie locale, les premiers stent auto-expansifs, appelés Wallstent[1]. À partir de 1989, il a été directeur du département de cardiologie invasive au Royal Brompton Hospital à Londres, où il a effectué les premières ablations septales par cathéter chez les sujets souffrant d’une cardiomyopathie hypertrophique[2], avant d’être nommé professeur et chef de cardiologie à l’Université de Genève jusqu’à sa retraite en 2006. En 2003 - avec son épouse Christine, née Sartorius - il créa la Fondation Jonas qui œuvre à l'intégration sociale de jeunes par le bais de la musique, du théâtre et de la danse.
+De 1979 à 1989, Sigwart a dirigé la cardiologie invasive à l’Université de Lausanne, où il a réussi à développer et implanter, en collaboration avec une industrie locale, les premiers stent auto-expansifs, appelés Wallstent. À partir de 1989, il a été directeur du département de cardiologie invasive au Royal Brompton Hospital à Londres, où il a effectué les premières ablations septales par cathéter chez les sujets souffrant d’une cardiomyopathie hypertrophique, avant d’être nommé professeur et chef de cardiologie à l’Université de Genève jusqu’à sa retraite en 2006. En 2003 - avec son épouse Christine, née Sartorius - il créa la Fondation Jonas qui œuvre à l'intégration sociale de jeunes par le bais de la musique, du théâtre et de la danse.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">ESC Grüntzig Award 1996
 Doctor honoris causa de l‘Université Lausanne 1999
